--- a/LCD - EEPROM - Layout.xlsx
+++ b/LCD - EEPROM - Layout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="87">
   <si>
     <t>01</t>
   </si>
@@ -748,8 +748,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,6 +1996,60 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">

--- a/LCD - EEPROM - Layout.xlsx
+++ b/LCD - EEPROM - Layout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="88">
   <si>
     <t>01</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -746,10 +749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF108"/>
+  <dimension ref="A1:AF119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,28 +1733,7 @@
       <c r="G26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T26" s="1" t="s">
@@ -1766,8 +1748,44 @@
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1775,48 +1793,41 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="P28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="V28" s="6"/>
     </row>
@@ -1826,51 +1837,57 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="P29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q29" s="5"/>
       <c r="R29" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="V29" s="6"/>
     </row>
@@ -2433,7 +2450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>53</v>
@@ -2496,90 +2513,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>20</v>
+      <c r="P52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -2642,99 +2650,91 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>20</v>
+      <c r="O58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>53</v>
@@ -2797,12 +2797,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
@@ -2825,19 +2825,19 @@
         <v>55</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>25</v>
@@ -2849,9 +2849,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -2953,19 +2971,19 @@
         <v>55</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>32</v>
@@ -2990,6 +3008,24 @@
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -2997,1491 +3033,1289 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="V73" s="6"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P74" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="V74" s="6"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="V75" s="6"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L76" s="5"/>
-      <c r="M76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="V76" s="6"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L77" s="5"/>
-      <c r="M77" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A77" s="7"/>
       <c r="V77" s="6"/>
     </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q82" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>34</v>
+      <c r="A84" s="4"/>
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>18</v>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C86" s="5"/>
       <c r="D86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="I86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="O86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>19</v>
+      <c r="R86" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="O87" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L88" s="5"/>
+      <c r="M88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S88" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>44</v>
+      <c r="F90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="2" t="s">
+      <c r="A91" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>18</v>
+      <c r="B91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P92" s="5"/>
       <c r="Q92" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S92" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T92" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L93" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O93" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P93" s="5"/>
+      <c r="G93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="Q93" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S93" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R94" s="6" t="s">
+      <c r="L94" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S94" s="6" t="s">
+      <c r="M94" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T94" s="6"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="P95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T95" s="6" t="s">
-        <v>26</v>
+      <c r="F96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>18</v>
+      <c r="B97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="G98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R98" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O98" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P98" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q98" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S98" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>20</v>
+      <c r="S98" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="5"/>
+        <v>1</v>
+      </c>
       <c r="C99" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J99" s="5"/>
       <c r="K99" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="P99" s="5"/>
       <c r="Q99" s="6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T99" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="5"/>
       <c r="K100" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="P100" s="5"/>
       <c r="Q100" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R100" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S100" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S100" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T100" s="6" t="s">
-        <v>62</v>
+      <c r="T100" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M101" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S101" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T101" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
     </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="2" t="s">
+      <c r="A103" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U103" s="2" t="s">
-        <v>18</v>
+      <c r="B103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T103" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="V103" s="6"/>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>24</v>
+      <c r="H104" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P104" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="P104" s="5"/>
       <c r="Q104" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="V104" s="6"/>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K105" s="5"/>
-      <c r="L105" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M105" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="P105" s="5"/>
       <c r="Q105" s="6" t="s">
         <v>19</v>
       </c>
@@ -4489,14 +4323,9 @@
         <v>19</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T105" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U105" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="T105" s="6"/>
       <c r="V105" s="6"/>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
@@ -4506,45 +4335,13 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K106" s="5"/>
-      <c r="L106" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="6" t="s">
         <v>21</v>
@@ -4555,7 +4352,7 @@
       <c r="S106" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="T106" s="1" t="s">
+      <c r="T106" s="6" t="s">
         <v>26</v>
       </c>
       <c r="V106" s="6"/>
@@ -4566,62 +4363,6 @@
       <c r="AC106" s="1"/>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T107" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="V107" s="6"/>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
@@ -4630,16 +4371,575 @@
       <c r="AC107" s="1"/>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q108" s="1" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S111" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T111" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R108" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q115" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K116" s="5"/>
+      <c r="L116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S116" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U116" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S108" s="1" t="s">
+      <c r="G117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K117" s="5"/>
+      <c r="L117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S117" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K118" s="5"/>
+      <c r="L118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S119" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T108" s="1" t="s">
+      <c r="T119" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4654,8 +4954,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:EE33"/>
   <sheetViews>
-    <sheetView topLeftCell="CQ10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CU36" sqref="CU36"/>
+    <sheetView topLeftCell="CQ22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LCD - EEPROM - Layout.xlsx
+++ b/LCD - EEPROM - Layout.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="LCD" sheetId="1" r:id="rId1"/>
     <sheet name="EEPROM" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="97">
   <si>
     <t>01</t>
   </si>
@@ -228,12 +227,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -280,6 +273,39 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Initial Bank</t>
+  </si>
+  <si>
+    <t>Back Light</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -391,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF119"/>
+  <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="Z143" sqref="Z143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,6 +973,12 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1065,119 +1100,203 @@
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1586,6 +1705,12 @@
       <c r="P20" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="T20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1868,7 +1993,7 @@
         <v>55</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>61</v>
@@ -3496,7 +3621,7 @@
         <v>25</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>52</v>
@@ -4208,33 +4333,8 @@
       <c r="G103" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R103" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S103" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T103" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="V103" s="6"/>
     </row>
@@ -4242,44 +4342,44 @@
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B104" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E104" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L104" s="5"/>
       <c r="M104" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R104" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="V104" s="6"/>
@@ -4288,44 +4388,59 @@
       <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G105" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O105" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P105" s="5"/>
       <c r="Q105" s="6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T105" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="V105" s="6"/>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
@@ -4337,23 +4452,55 @@
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
+      <c r="C106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L106" s="5"/>
+      <c r="M106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="P106" s="5"/>
       <c r="Q106" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="R106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T106" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="S106" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T106" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="V106" s="6"/>
       <c r="Y106" s="6"/>
@@ -4523,7 +4670,7 @@
         <v>62</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P110" s="5"/>
       <c r="Q110" s="6" t="s">
@@ -4539,7 +4686,7 @@
         <v>62</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
@@ -4592,7 +4739,7 @@
         <v>62</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
@@ -4613,7 +4760,7 @@
         <v>62</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="6" t="s">
@@ -4629,7 +4776,7 @@
         <v>62</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P112" s="5"/>
       <c r="Q112" s="6" t="s">
@@ -4719,7 +4866,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>52</v>
@@ -4941,6 +5088,1282 @@
       </c>
       <c r="T119" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S122" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U123" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M124" s="6"/>
+      <c r="U124" s="6"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U127" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O129" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T129" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U129" s="6"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S130" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q134" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T134" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U134" s="6"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L139" s="6"/>
+      <c r="U139" s="6"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+      <c r="U140" s="6"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U145" s="6"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R147" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S147" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4952,10 +6375,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:EE33"/>
+  <dimension ref="A1:EE34"/>
   <sheetViews>
-    <sheetView topLeftCell="CQ22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="CW19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,28 +6388,28 @@
   <sheetData>
     <row r="1" spans="1:135" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="CY1" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="DP1" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:135" x14ac:dyDescent="0.25">
@@ -21423,7 +22846,7 @@
         <f t="shared" si="226"/>
         <v>4092</v>
       </c>
-      <c r="EC33" s="12">
+      <c r="EC33" s="18">
         <f t="shared" si="226"/>
         <v>4093</v>
       </c>
@@ -21434,23 +22857,21 @@
       <c r="EE33" s="18">
         <f t="shared" si="226"/>
         <v>4095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:135" ht="57" x14ac:dyDescent="0.25">
+      <c r="EC34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="ED34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE34" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/LCD - EEPROM - Layout.xlsx
+++ b/LCD - EEPROM - Layout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="98">
   <si>
     <t>01</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Key Light</t>
   </si>
 </sst>
 </file>
@@ -780,8 +783,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="Z143" sqref="Z143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,44 +1103,59 @@
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -4315,26 +4333,42 @@
       <c r="A103" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="L103" s="5"/>
+      <c r="M103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="V103" s="6"/>
     </row>
@@ -6377,8 +6411,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:EE34"/>
   <sheetViews>
-    <sheetView topLeftCell="CW19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:P33"/>
+    <sheetView topLeftCell="DK16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EI20" sqref="EI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22842,7 +22876,7 @@
         <f t="shared" si="226"/>
         <v>4091</v>
       </c>
-      <c r="EB33" s="12">
+      <c r="EB33" s="18">
         <f t="shared" si="226"/>
         <v>4092</v>
       </c>
@@ -22860,6 +22894,9 @@
       </c>
     </row>
     <row r="34" spans="1:135" ht="57" x14ac:dyDescent="0.25">
+      <c r="EB34" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="EC34" s="19" t="s">
         <v>90</v>
       </c>

--- a/LCD - EEPROM - Layout.xlsx
+++ b/LCD - EEPROM - Layout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="98">
   <si>
     <t>01</t>
   </si>
@@ -781,10 +781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF148"/>
+  <dimension ref="A1:AF154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="X151" sqref="X151:Y159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,29 +3512,27 @@
       <c r="A85" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="G85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="1" t="s">
@@ -6398,6 +6396,241 @@
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U150" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R151" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T151" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S154" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T154" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
